--- a/public/excel/dataTraning1.xlsx
+++ b/public/excel/dataTraning1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pekerjaan\CRM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230E7AF1-F5D3-45C9-9826-A454C7332A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BE31A9-1BDF-4B9D-AF32-9A37733E4ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{728DBF00-686C-41CD-B2A9-0209504A1EC3}"/>
   </bookViews>
@@ -164,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -196,7 +196,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,14 +513,14 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" style="6" customWidth="1"/>
     <col min="2" max="3" width="16" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" style="11" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
     <col min="5" max="5" width="25.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.88671875" style="8" customWidth="1"/>
@@ -662,7 +661,7 @@
         <v>140000</v>
       </c>
       <c r="H5" s="3">
-        <f t="shared" ref="H3:H11" si="0">F5*G5</f>
+        <f t="shared" ref="H5:H11" si="0">F5*G5</f>
         <v>280000</v>
       </c>
     </row>
@@ -705,7 +704,7 @@
       <c r="C7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="4">
@@ -733,7 +732,7 @@
       <c r="C8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="4">

--- a/public/excel/dataTraning1.xlsx
+++ b/public/excel/dataTraning1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pekerjaan\CRM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ethos\Leaderboard CRM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BE31A9-1BDF-4B9D-AF32-9A37733E4ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED54B13C-CEC4-47D7-BCED-C3547E882087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{728DBF00-686C-41CD-B2A9-0209504A1EC3}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="21585" windowHeight="11295" xr2:uid="{728DBF00-686C-41CD-B2A9-0209504A1EC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,9 +72,6 @@
     <t>Zymuno</t>
   </si>
   <si>
-    <t>Freshmage</t>
-  </si>
-  <si>
     <t>Etawalin</t>
   </si>
   <si>
@@ -118,6 +115,9 @@
   </si>
   <si>
     <t>Arda Aulia</t>
+  </si>
+  <si>
+    <t>Freshmag</t>
   </si>
 </sst>
 </file>
@@ -214,9 +214,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -254,7 +254,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -360,7 +360,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -502,7 +502,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -513,21 +513,21 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="6" customWidth="1"/>
     <col min="2" max="3" width="16" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -541,7 +541,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
@@ -553,7 +553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>DATE(2024,3,6)</f>
         <v>45357</v>
@@ -581,19 +581,19 @@
         <v>390000</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>DATE(2024,3,7)</f>
         <v>45358</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E3" s="4">
         <v>6287811970372</v>
@@ -609,13 +609,13 @@
         <v>145000</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>DATE(2024,3,8)</f>
         <v>45359</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>10</v>
@@ -637,19 +637,19 @@
         <v>465000</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>DATE(2024,3,9)</f>
         <v>45360</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="4">
         <v>6287811970372</v>
@@ -665,19 +665,19 @@
         <v>280000</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>DATE(2024,3,10)</f>
         <v>45361</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="D6" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="4">
         <v>6287899703441</v>
@@ -693,19 +693,19 @@
         <v>280000</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>DATE(2024,3,11)</f>
         <v>45362</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="4">
         <v>6287899701421</v>
@@ -721,19 +721,19 @@
         <v>145000</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>DATE(2024,3,12)</f>
         <v>45363</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
         <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
       </c>
       <c r="E8" s="4">
         <v>6287899703666</v>
@@ -749,19 +749,19 @@
         <v>145000</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f>DATE(2024,3,13)</f>
         <v>45364</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="4">
         <v>6287899000876</v>
@@ -777,13 +777,13 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <f>DATE(2024,3,14)</f>
         <v>45365</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>9</v>
@@ -805,16 +805,16 @@
         <v>260000</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <f>DATE(2024,3,15)</f>
         <v>45366</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>11</v>
@@ -833,7 +833,7 @@
         <v>130000</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <f>DATE(2024,3,16)</f>
         <v>45367</v>
@@ -845,7 +845,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" s="4">
         <v>6287899703441</v>
@@ -861,19 +861,19 @@
         <v>435000</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <f>DATE(2024,3,9)</f>
         <v>45360</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" s="4">
         <v>6287811970372</v>

--- a/public/excel/dataTraning1.xlsx
+++ b/public/excel/dataTraning1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ethos\Leaderboard CRM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pekerjaan\CRM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED54B13C-CEC4-47D7-BCED-C3547E882087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BE31A9-1BDF-4B9D-AF32-9A37733E4ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="21585" windowHeight="11295" xr2:uid="{728DBF00-686C-41CD-B2A9-0209504A1EC3}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{728DBF00-686C-41CD-B2A9-0209504A1EC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,6 +72,9 @@
     <t>Zymuno</t>
   </si>
   <si>
+    <t>Freshmage</t>
+  </si>
+  <si>
     <t>Etawalin</t>
   </si>
   <si>
@@ -115,9 +118,6 @@
   </si>
   <si>
     <t>Arda Aulia</t>
-  </si>
-  <si>
-    <t>Freshmag</t>
   </si>
 </sst>
 </file>
@@ -214,9 +214,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -254,7 +254,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -360,7 +360,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -502,7 +502,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -513,21 +513,21 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="6" customWidth="1"/>
     <col min="2" max="3" width="16" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -541,7 +541,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
@@ -553,7 +553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <f>DATE(2024,3,6)</f>
         <v>45357</v>
@@ -581,19 +581,19 @@
         <v>390000</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <f>DATE(2024,3,7)</f>
         <v>45358</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E3" s="4">
         <v>6287811970372</v>
@@ -609,13 +609,13 @@
         <v>145000</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <f>DATE(2024,3,8)</f>
         <v>45359</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>10</v>
@@ -637,19 +637,19 @@
         <v>465000</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <f>DATE(2024,3,9)</f>
         <v>45360</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="4">
         <v>6287811970372</v>
@@ -665,19 +665,19 @@
         <v>280000</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <f>DATE(2024,3,10)</f>
         <v>45361</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" s="4">
         <v>6287899703441</v>
@@ -693,19 +693,19 @@
         <v>280000</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <f>DATE(2024,3,11)</f>
         <v>45362</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7" s="4">
         <v>6287899701421</v>
@@ -721,19 +721,19 @@
         <v>145000</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <f>DATE(2024,3,12)</f>
         <v>45363</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8" s="4">
         <v>6287899703666</v>
@@ -749,19 +749,19 @@
         <v>145000</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <f>DATE(2024,3,13)</f>
         <v>45364</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" s="4">
         <v>6287899000876</v>
@@ -777,13 +777,13 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <f>DATE(2024,3,14)</f>
         <v>45365</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>9</v>
@@ -805,16 +805,16 @@
         <v>260000</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <f>DATE(2024,3,15)</f>
         <v>45366</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>11</v>
@@ -833,7 +833,7 @@
         <v>130000</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <f>DATE(2024,3,16)</f>
         <v>45367</v>
@@ -845,7 +845,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12" s="4">
         <v>6287899703441</v>
@@ -861,19 +861,19 @@
         <v>435000</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <f>DATE(2024,3,9)</f>
         <v>45360</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E13" s="4">
         <v>6287811970372</v>
